--- a/Ners/2024-2025/Transkip Nilai NERS 2024.xlsx
+++ b/Ners/2024-2025/Transkip Nilai NERS 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\Ners\2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C87C64B-6978-45EB-8A6E-A2993BC5E678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA212550-385F-4B62-8540-38759A6BA003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" xr2:uid="{334A25BB-288C-4A5C-B9BF-5A8A0F233C73}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{334A25BB-288C-4A5C-B9BF-5A8A0F233C73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,9 +390,6 @@
     <t>Asuhan Keperawatan Bersihan Jalan Napas Tidak Efektif Pada Ny.N Dengan Ppok Eksaserbasi Dan Penerapan Active Cycle Of Breathing Technique Di Igd Rsud Raja Ahmad Thabib Provinsi Kepri Tahun 2025</t>
   </si>
   <si>
-    <t>Asuhan Keperawatan Gangguan Persepsi Sensori Pada Tn.B Dengan Halusinasi Pendengaran Dan Penerapan Terapi Gambar Di Ruang Mandau 2 Rsj Tampan Pekanbaru</t>
-  </si>
-  <si>
     <t>Asuhan Keperawatan Ansietas Pada An.S Dengan Kejang Demam dan Penerapan Terapi Mewarnai Di Ruang Subi Kecil Rumkital DR,Midiyanto Suratani Tanjung Pinang</t>
   </si>
   <si>
@@ -610,6 +607,11 @@
   </si>
   <si>
     <t>Asuhan Keperawatan Gangguan Integeritas Kulit Pada An.A Dengan Luka Bakar Dan Penerapan Aloevera Di Paviliun Cindai Rsud Encik Maryam Kabupatern Lingga</t>
+  </si>
+  <si>
+    <t>ASUHAN KEPERAWATAN GANGGUAN PERSEPSI SENSORI PADA Tn.B
+DENGAN SKIZOFRENIA PARANOID DAN PENERAPAN TERAPI
+GAMBAR DI RUANG MANDAU 2 RSJ TAMPAN PEKANBARU</t>
   </si>
 </sst>
 </file>
@@ -1025,22 +1027,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1058,34 +1085,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1405,147 +1407,147 @@
   <dimension ref="A1:BW50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AA13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="BW33" sqref="BW33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="60" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="35.59765625" customWidth="1"/>
+    <col min="3" max="3" width="28.265625" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="6" max="6" width="28.59765625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="26.265625" style="60" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="73" max="73" width="22.7109375" customWidth="1"/>
-    <col min="74" max="74" width="18.85546875" customWidth="1"/>
-    <col min="75" max="75" width="27.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" customWidth="1"/>
+    <col min="10" max="10" width="11.73046875" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" customWidth="1"/>
+    <col min="73" max="73" width="22.73046875" customWidth="1"/>
+    <col min="74" max="74" width="18.86328125" customWidth="1"/>
+    <col min="75" max="75" width="27.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75" t="s">
+      <c r="I1" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="76" t="s">
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="77" t="s">
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="78" t="s">
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="79" t="s">
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="80" t="s">
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="88"/>
+      <c r="AM1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="81" t="s">
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="82" t="s">
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="83"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="82"/>
-      <c r="BA1" s="82"/>
-      <c r="BB1" s="83" t="s">
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="83"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="84" t="s">
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
-      <c r="BK1" s="84"/>
-      <c r="BL1" s="72" t="s">
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="81"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="BM1" s="72" t="s">
+      <c r="BM1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="BN1" s="85" t="s">
+      <c r="BN1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="BO1" s="72" t="s">
+      <c r="BO1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="BP1" s="72" t="s">
+      <c r="BP1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="BQ1" s="72" t="s">
+      <c r="BQ1" s="78" t="s">
         <v>12</v>
       </c>
       <c r="BR1" s="13" t="s">
@@ -1554,28 +1556,28 @@
       <c r="BS1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="BT1" s="72" t="s">
+      <c r="BT1" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="BU1" s="85" t="s">
+      <c r="BU1" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="BV1" s="85" t="s">
+      <c r="BV1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="BW1" s="85" t="s">
+      <c r="BW1" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="72"/>
+    <row r="2" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="39" t="s">
         <v>20</v>
       </c>
@@ -1741,29 +1743,29 @@
       <c r="BK2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="85"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
       <c r="BR2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="BT2" s="72"/>
-      <c r="BU2" s="85"/>
-      <c r="BV2" s="85"/>
-      <c r="BW2" s="85"/>
+      <c r="BT2" s="78"/>
+      <c r="BU2" s="76"/>
+      <c r="BV2" s="76"/>
+      <c r="BW2" s="76"/>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="6">
         <v>132414001</v>
@@ -1778,10 +1780,10 @@
         <v>37</v>
       </c>
       <c r="G3" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="68" t="s">
         <v>120</v>
-      </c>
-      <c r="H3" s="68" t="s">
-        <v>121</v>
       </c>
       <c r="I3" s="17">
         <v>80</v>
@@ -1852,14 +1854,14 @@
       <c r="AA3" s="33">
         <v>4</v>
       </c>
-      <c r="AB3" s="86">
+      <c r="AB3" s="72">
         <f t="shared" ref="AB3:AB34" si="8">Z3*AA3</f>
         <v>14</v>
       </c>
       <c r="AC3" s="49">
         <v>76</v>
       </c>
-      <c r="AD3" s="87" t="str">
+      <c r="AD3" s="73" t="str">
         <f t="shared" ref="AD3:AD34" si="9">IF(AC3&gt;=80,"A",IF(AC3&gt;=75,"B+",IF(AC3&gt;=70,"B",IF(AC3&gt;=65,"C+",IF(AC3&gt;=60,"C",IF(AC3&gt;=55,"D",IF(AC3&lt;55,"E")))))))</f>
         <v>B+</v>
       </c>
@@ -2030,12 +2032,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="6">
         <v>132414002</v>
@@ -2050,10 +2052,10 @@
         <v>39</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I4" s="17">
         <v>79</v>
@@ -2124,14 +2126,14 @@
       <c r="AA4" s="33">
         <v>4</v>
       </c>
-      <c r="AB4" s="86">
+      <c r="AB4" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC4" s="49">
         <v>77</v>
       </c>
-      <c r="AD4" s="87" t="str">
+      <c r="AD4" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -2302,12 +2304,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="6">
         <v>132414003</v>
@@ -2322,10 +2324,10 @@
         <v>41</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5" s="17">
         <v>80</v>
@@ -2396,14 +2398,14 @@
       <c r="AA5" s="33">
         <v>4</v>
       </c>
-      <c r="AB5" s="86">
+      <c r="AB5" s="72">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AC5" s="49">
         <v>79</v>
       </c>
-      <c r="AD5" s="87" t="str">
+      <c r="AD5" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -2574,12 +2576,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="6">
         <v>132414004</v>
@@ -2591,13 +2593,13 @@
         <v>42</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" s="17">
         <v>80</v>
@@ -2668,14 +2670,14 @@
       <c r="AA6" s="33">
         <v>4</v>
       </c>
-      <c r="AB6" s="86">
+      <c r="AB6" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC6" s="49">
         <v>78</v>
       </c>
-      <c r="AD6" s="87" t="str">
+      <c r="AD6" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -2846,12 +2848,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="6">
         <v>132414005</v>
@@ -2866,10 +2868,10 @@
         <v>44</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H7" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" s="17">
         <v>79</v>
@@ -2940,14 +2942,14 @@
       <c r="AA7" s="33">
         <v>4</v>
       </c>
-      <c r="AB7" s="86">
+      <c r="AB7" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC7" s="49">
         <v>76</v>
       </c>
-      <c r="AD7" s="87" t="str">
+      <c r="AD7" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -3114,16 +3116,16 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW7" s="88" t="s">
-        <v>190</v>
+      <c r="BW7" s="74" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="6">
         <v>132414006</v>
@@ -3138,10 +3140,10 @@
         <v>46</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="17">
         <v>80</v>
@@ -3212,14 +3214,14 @@
       <c r="AA8" s="33">
         <v>4</v>
       </c>
-      <c r="AB8" s="86">
+      <c r="AB8" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC8" s="49">
         <v>79</v>
       </c>
-      <c r="AD8" s="87" t="str">
+      <c r="AD8" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -3390,12 +3392,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="6">
         <v>132414008</v>
@@ -3410,10 +3412,10 @@
         <v>48</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I9" s="17">
         <v>80</v>
@@ -3484,14 +3486,14 @@
       <c r="AA9" s="33">
         <v>4</v>
       </c>
-      <c r="AB9" s="86">
+      <c r="AB9" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC9" s="49">
         <v>76</v>
       </c>
-      <c r="AD9" s="87" t="str">
+      <c r="AD9" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -3662,12 +3664,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="6">
         <v>132414009</v>
@@ -3682,10 +3684,10 @@
         <v>50</v>
       </c>
       <c r="G10" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10" s="17">
         <v>80</v>
@@ -3756,14 +3758,14 @@
       <c r="AA10" s="33">
         <v>4</v>
       </c>
-      <c r="AB10" s="86">
+      <c r="AB10" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC10" s="49">
         <v>80</v>
       </c>
-      <c r="AD10" s="87" t="str">
+      <c r="AD10" s="73" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
@@ -3930,16 +3932,16 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW10" s="89" t="s">
+      <c r="BW10" s="75" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="6">
         <v>132414010</v>
@@ -3954,10 +3956,10 @@
         <v>52</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="17">
         <v>80</v>
@@ -4028,14 +4030,14 @@
       <c r="AA11" s="33">
         <v>4</v>
       </c>
-      <c r="AB11" s="86">
+      <c r="AB11" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC11" s="49">
         <v>79</v>
       </c>
-      <c r="AD11" s="87" t="str">
+      <c r="AD11" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -4206,12 +4208,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="6">
         <v>132414011</v>
@@ -4223,13 +4225,13 @@
         <v>53</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G12" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H12" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="17">
         <v>80</v>
@@ -4300,14 +4302,14 @@
       <c r="AA12" s="33">
         <v>4</v>
       </c>
-      <c r="AB12" s="86">
+      <c r="AB12" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC12" s="49">
         <v>76</v>
       </c>
-      <c r="AD12" s="87" t="str">
+      <c r="AD12" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -4478,12 +4480,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="6">
         <v>132414013</v>
@@ -4498,10 +4500,10 @@
         <v>55</v>
       </c>
       <c r="G13" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" s="68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I13" s="17">
         <v>74</v>
@@ -4572,14 +4574,14 @@
       <c r="AA13" s="33">
         <v>4</v>
       </c>
-      <c r="AB13" s="86">
+      <c r="AB13" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC13" s="49">
         <v>75</v>
       </c>
-      <c r="AD13" s="87" t="str">
+      <c r="AD13" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -4750,12 +4752,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="6">
         <v>132414014</v>
@@ -4764,16 +4766,16 @@
         <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="58" t="s">
-        <v>188</v>
-      </c>
       <c r="G14" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I14" s="17">
         <v>74</v>
@@ -4844,14 +4846,14 @@
       <c r="AA14" s="33">
         <v>4</v>
       </c>
-      <c r="AB14" s="86">
+      <c r="AB14" s="72">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC14" s="49">
         <v>78.53</v>
       </c>
-      <c r="AD14" s="87" t="str">
+      <c r="AD14" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -5022,12 +5024,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="6">
         <v>132414015</v>
@@ -5042,10 +5044,10 @@
         <v>57</v>
       </c>
       <c r="G15" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I15" s="17">
         <v>80</v>
@@ -5116,14 +5118,14 @@
       <c r="AA15" s="33">
         <v>4</v>
       </c>
-      <c r="AB15" s="86">
+      <c r="AB15" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC15" s="49">
         <v>79.7</v>
       </c>
-      <c r="AD15" s="87" t="str">
+      <c r="AD15" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -5294,12 +5296,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="57">
         <v>132414016</v>
@@ -5314,10 +5316,10 @@
         <v>59</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I16" s="17">
         <v>78</v>
@@ -5388,14 +5390,14 @@
       <c r="AA16" s="33">
         <v>4</v>
       </c>
-      <c r="AB16" s="86">
+      <c r="AB16" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC16" s="49">
         <v>80</v>
       </c>
-      <c r="AD16" s="87" t="str">
+      <c r="AD16" s="73" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
@@ -5566,12 +5568,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="6">
         <v>132414017</v>
@@ -5586,10 +5588,10 @@
         <v>61</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H17" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I17" s="17">
         <v>78</v>
@@ -5660,14 +5662,14 @@
       <c r="AA17" s="33">
         <v>4</v>
       </c>
-      <c r="AB17" s="86">
+      <c r="AB17" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC17" s="49">
         <v>78</v>
       </c>
-      <c r="AD17" s="87" t="str">
+      <c r="AD17" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -5834,16 +5836,16 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW17" s="88" t="s">
+      <c r="BW17" s="74" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="6">
         <v>132414018</v>
@@ -5858,10 +5860,10 @@
         <v>63</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I18" s="17">
         <v>78</v>
@@ -5932,14 +5934,14 @@
       <c r="AA18" s="33">
         <v>4</v>
       </c>
-      <c r="AB18" s="86">
+      <c r="AB18" s="72">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC18" s="49">
         <v>75</v>
       </c>
-      <c r="AD18" s="87" t="str">
+      <c r="AD18" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -6110,12 +6112,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="6">
         <v>132414019</v>
@@ -6130,10 +6132,10 @@
         <v>65</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H19" s="68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I19" s="17">
         <v>78</v>
@@ -6204,14 +6206,14 @@
       <c r="AA19" s="33">
         <v>4</v>
       </c>
-      <c r="AB19" s="86">
+      <c r="AB19" s="72">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC19" s="49">
         <v>76</v>
       </c>
-      <c r="AD19" s="87" t="str">
+      <c r="AD19" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -6382,12 +6384,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="6">
         <v>132414020</v>
@@ -6402,10 +6404,10 @@
         <v>67</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I20" s="17">
         <v>78</v>
@@ -6476,14 +6478,14 @@
       <c r="AA20" s="33">
         <v>4</v>
       </c>
-      <c r="AB20" s="86">
+      <c r="AB20" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC20" s="49">
         <v>76</v>
       </c>
-      <c r="AD20" s="87" t="str">
+      <c r="AD20" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -6654,12 +6656,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="6">
         <v>132414021</v>
@@ -6674,10 +6676,10 @@
         <v>68</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H21" s="68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I21" s="17">
         <v>74</v>
@@ -6748,14 +6750,14 @@
       <c r="AA21" s="33">
         <v>4</v>
       </c>
-      <c r="AB21" s="86">
+      <c r="AB21" s="72">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC21" s="49">
         <v>75</v>
       </c>
-      <c r="AD21" s="87" t="str">
+      <c r="AD21" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -6926,12 +6928,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="6">
         <v>132414022</v>
@@ -6946,10 +6948,10 @@
         <v>70</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H22" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I22" s="17">
         <v>79</v>
@@ -7020,14 +7022,14 @@
       <c r="AA22" s="33">
         <v>4</v>
       </c>
-      <c r="AB22" s="86">
+      <c r="AB22" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC22" s="49">
         <v>79</v>
       </c>
-      <c r="AD22" s="87" t="str">
+      <c r="AD22" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -7198,12 +7200,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="6">
         <v>132414023</v>
@@ -7218,10 +7220,10 @@
         <v>71</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H23" s="68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I23" s="17">
         <v>78</v>
@@ -7292,14 +7294,14 @@
       <c r="AA23" s="33">
         <v>4</v>
       </c>
-      <c r="AB23" s="86">
+      <c r="AB23" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC23" s="49">
         <v>77</v>
       </c>
-      <c r="AD23" s="87" t="str">
+      <c r="AD23" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -7470,12 +7472,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:75" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" s="6">
         <v>132414025</v>
@@ -7490,10 +7492,10 @@
         <v>73</v>
       </c>
       <c r="G24" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I24" s="17">
         <v>76</v>
@@ -7564,14 +7566,14 @@
       <c r="AA24" s="33">
         <v>4</v>
       </c>
-      <c r="AB24" s="86">
+      <c r="AB24" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC24" s="49">
         <v>79</v>
       </c>
-      <c r="AD24" s="87" t="str">
+      <c r="AD24" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -7742,12 +7744,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" s="6">
         <v>132414026</v>
@@ -7762,10 +7764,10 @@
         <v>74</v>
       </c>
       <c r="G25" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I25" s="17">
         <v>80</v>
@@ -7836,14 +7838,14 @@
       <c r="AA25" s="33">
         <v>4</v>
       </c>
-      <c r="AB25" s="86">
+      <c r="AB25" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC25" s="49">
         <v>80</v>
       </c>
-      <c r="AD25" s="87" t="str">
+      <c r="AD25" s="73" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
@@ -8014,12 +8016,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="6">
         <v>132414027</v>
@@ -8034,10 +8036,10 @@
         <v>76</v>
       </c>
       <c r="G26" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" s="68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I26" s="17">
         <v>79</v>
@@ -8108,14 +8110,14 @@
       <c r="AA26" s="33">
         <v>4</v>
       </c>
-      <c r="AB26" s="86">
+      <c r="AB26" s="72">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC26" s="49">
         <v>76</v>
       </c>
-      <c r="AD26" s="87" t="str">
+      <c r="AD26" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -8283,15 +8285,15 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="BW26" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="6">
         <v>132414028</v>
@@ -8306,10 +8308,10 @@
         <v>78</v>
       </c>
       <c r="G27" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I27" s="17">
         <v>79</v>
@@ -8380,14 +8382,14 @@
       <c r="AA27" s="33">
         <v>4</v>
       </c>
-      <c r="AB27" s="86">
+      <c r="AB27" s="72">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC27" s="49">
         <v>76</v>
       </c>
-      <c r="AD27" s="87" t="str">
+      <c r="AD27" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -8558,12 +8560,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:75" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:75" ht="30" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="6">
         <v>132414032</v>
@@ -8578,10 +8580,10 @@
         <v>80</v>
       </c>
       <c r="G28" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I28" s="17">
         <v>80</v>
@@ -8652,14 +8654,14 @@
       <c r="AA28" s="33">
         <v>4</v>
       </c>
-      <c r="AB28" s="86">
+      <c r="AB28" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC28" s="49">
         <v>80</v>
       </c>
-      <c r="AD28" s="87" t="str">
+      <c r="AD28" s="73" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
@@ -8827,15 +8829,15 @@
         <v>Excellent</v>
       </c>
       <c r="BW28" s="54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" s="6">
         <v>132414033</v>
@@ -8850,10 +8852,10 @@
         <v>82</v>
       </c>
       <c r="G29" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H29" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I29" s="17">
         <v>75</v>
@@ -8924,14 +8926,14 @@
       <c r="AA29" s="33">
         <v>4</v>
       </c>
-      <c r="AB29" s="86">
+      <c r="AB29" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC29" s="49">
         <v>78</v>
       </c>
-      <c r="AD29" s="87" t="str">
+      <c r="AD29" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -9102,12 +9104,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" s="6">
         <v>132414035</v>
@@ -9122,10 +9124,10 @@
         <v>84</v>
       </c>
       <c r="G30" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H30" s="68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I30" s="17">
         <v>74</v>
@@ -9196,14 +9198,14 @@
       <c r="AA30" s="33">
         <v>4</v>
       </c>
-      <c r="AB30" s="86">
+      <c r="AB30" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC30" s="49">
         <v>77</v>
       </c>
-      <c r="AD30" s="87" t="str">
+      <c r="AD30" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -9374,12 +9376,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:75" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="6">
         <v>132414037</v>
@@ -9394,10 +9396,10 @@
         <v>86</v>
       </c>
       <c r="G31" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I31" s="17">
         <v>78</v>
@@ -9468,14 +9470,14 @@
       <c r="AA31" s="33">
         <v>4</v>
       </c>
-      <c r="AB31" s="86">
+      <c r="AB31" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC31" s="49">
         <v>79</v>
       </c>
-      <c r="AD31" s="87" t="str">
+      <c r="AD31" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -9646,12 +9648,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" s="6">
         <v>132414038</v>
@@ -9666,10 +9668,10 @@
         <v>87</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H32" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I32" s="17">
         <v>80</v>
@@ -9740,14 +9742,14 @@
       <c r="AA32" s="33">
         <v>4</v>
       </c>
-      <c r="AB32" s="86">
+      <c r="AB32" s="72">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC32" s="49">
         <v>76</v>
       </c>
-      <c r="AD32" s="87" t="str">
+      <c r="AD32" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -9918,12 +9920,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:75" ht="15" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="16">
         <v>132414040</v>
@@ -9938,10 +9940,10 @@
         <v>88</v>
       </c>
       <c r="G33" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H33" s="68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I33" s="17">
         <v>74</v>
@@ -10012,14 +10014,14 @@
       <c r="AA33" s="33">
         <v>4</v>
       </c>
-      <c r="AB33" s="86">
+      <c r="AB33" s="72">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC33" s="49">
         <v>80</v>
       </c>
-      <c r="AD33" s="87" t="str">
+      <c r="AD33" s="73" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
@@ -10187,15 +10189,15 @@
         <v>Excellent</v>
       </c>
       <c r="BW33" s="54" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:75" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:75" ht="30" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" s="16">
         <v>132414042</v>
@@ -10210,10 +10212,10 @@
         <v>90</v>
       </c>
       <c r="G34" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H34" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I34" s="17">
         <v>75</v>
@@ -10284,14 +10286,14 @@
       <c r="AA34" s="33">
         <v>4</v>
       </c>
-      <c r="AB34" s="86">
+      <c r="AB34" s="72">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC34" s="49">
         <v>76</v>
       </c>
-      <c r="AD34" s="87" t="str">
+      <c r="AD34" s="73" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -10459,10 +10461,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW34" s="54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:75" ht="15.75" x14ac:dyDescent="0.45">
       <c r="I35" s="1"/>
       <c r="N35" s="1"/>
       <c r="S35" s="1"/>
@@ -10473,68 +10475,81 @@
       <c r="BR35" s="15"/>
       <c r="BT35" s="52"/>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B38" s="53"/>
       <c r="C38" s="53"/>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B41" s="53"/>
       <c r="C41" s="53"/>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:75" x14ac:dyDescent="0.45">
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="BU1:BU2"/>
     <mergeCell ref="BV1:BV2"/>
     <mergeCell ref="BW1:BW2"/>
@@ -10551,19 +10566,6 @@
     <mergeCell ref="BN1:BN2"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ners/2024-2025/Transkip Nilai NERS 2024.xlsx
+++ b/Ners/2024-2025/Transkip Nilai NERS 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\Ners\2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA212550-385F-4B62-8540-38759A6BA003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D41FE29-6C4D-4845-823F-024526770E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{334A25BB-288C-4A5C-B9BF-5A8A0F233C73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334A25BB-288C-4A5C-B9BF-5A8A0F233C73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="225">
   <si>
     <t>NO</t>
   </si>
@@ -612,6 +612,105 @@
     <t>ASUHAN KEPERAWATAN GANGGUAN PERSEPSI SENSORI PADA Tn.B
 DENGAN SKIZOFRENIA PARANOID DAN PENERAPAN TERAPI
 GAMBAR DI RUANG MANDAU 2 RSJ TAMPAN PEKANBARU</t>
+  </si>
+  <si>
+    <t>Judul Inggris</t>
+  </si>
+  <si>
+    <t>Nursing Care for Pain in Mr. R with Lung Cancer through the Application of Qur’anic Recitation Therapy in Alamanda Ward, Bintan District Hospital, 2025</t>
+  </si>
+  <si>
+    <t>Nursing Care for Hyperthermia in Child A with Febrile Seizures through Tepid Sponge Therapy in Subi Kecil Room, Dr. Midiyato Suratani Naval Hospital, Tanjungpinang, 2024</t>
+  </si>
+  <si>
+    <t>Nursing Care for Acute Pain in Mrs. A Post Spontaneous Delivery through Effleurage Massage in Bougenville Ward, Raja Ahmad Tabib Regional Hospital, 2024</t>
+  </si>
+  <si>
+    <t>Nursing Care for Acute Pain in Mr. ES with Gout Arthritis using Warm Red Ginger Compress at Rumah Bahagia Embung Fatimah, Tanjungpinang, 2025</t>
+  </si>
+  <si>
+    <t>Nursing Care for Acute Pain in Mrs. S Post–Cesarean Section with PROM using Bitter Orange Aromatherapy in Sebetul Ward, Dr. Midiyato Suratani Naval Hospital, 2025</t>
+  </si>
+  <si>
+    <t>Nursing Care for Impaired Physical Mobility in Mrs. P with Non-Hemorrhagic Stroke using Passive Range of Motion Exercises in Melati Ward, Raja Ahmad Thabib Hospital</t>
+  </si>
+  <si>
+    <t>Nursing Care for Acute Pain in Mrs. N Post Cholecystectomy using Finger Grasp Relaxation Technique in Mangkai Ward, Dr. Midiyato Suratani Naval Hospital, 2024</t>
+  </si>
+  <si>
+    <t>Nursing Care for Ineffective Breathing Pattern in Mr. L with COPD using Pursed-Lip Breathing Technique in Emergency Unit, Bintan District Hospital, 2025</t>
+  </si>
+  <si>
+    <t>Nursing Care for Acute Pain in Mrs. J Post–Cesarean Section using Early Mobilization at Bintan District Hospital, 2024</t>
+  </si>
+  <si>
+    <t>Nursing Care for Hyperthermia in Child F with Dengue Hemorrhagic Fever using Aloe Vera Compress in Gardenia Ward, Bintan District Hospital, 2024</t>
+  </si>
+  <si>
+    <t>Nursing Care for Ineffective Health Management in Mr. M’s Family with Hypertension through Hypertension Exercise Program at Kampung Bugis Public Health Center, 2025</t>
+  </si>
+  <si>
+    <t>Nursing Care for Impaired Physical Mobility in Mr. A Post–ORIF Femur using Range of Motion Exercises in Senoa Ward, Dr. Midiyato Suratani Naval Hospital</t>
+  </si>
+  <si>
+    <t>Nursing Care for Acute Pain in Mrs. S Post–Clavicle Fracture Surgery using Cold Pack Therapy in Senoa Ward, Dr. Midiyato Suratani Naval Hospital</t>
+  </si>
+  <si>
+    <t>Nursing Care for Impaired Physical Mobility in Mrs. L Post Liver Tumor Laparotomy using Early Mobilization in Senoa Ward, Naval Hospital Dr. Midiyato Suratani</t>
+  </si>
+  <si>
+    <t>Nursing Care for Fatigue in Mrs. Z with Chronic Kidney Disease using Foot Massage Therapy in ICU, Dr. Midiyato Suratani Naval Hospital, 2025</t>
+  </si>
+  <si>
+    <t>Nursing Care for Ineffective Cerebral Perfusion in Mrs. M with Hypertension through Slow Back Massage in Dahlia Ward, Raja Ahmad Thabib Hospital</t>
+  </si>
+  <si>
+    <t>Nursing Care for Acute Pain in Mr. H Post–Inguinal Hernia Surgery using Lemon Aromatherapy in Senoa Ward, Dr. Midiyato Suratani Naval Hospital</t>
+  </si>
+  <si>
+    <t>Nursing Care for Acute Pain in Mrs. T Post–Cesarean Section with PROM using Finger Grasp Relaxation in Sebetul Ward, Dr. Midiyato Suratani Naval Hospital</t>
+  </si>
+  <si>
+    <t>Nursing Care for Sensory Perception Disturbance: Auditory Hallucinations in Mr. M with Schizophrenia using Thought Stopping Therapy at Tampan Psychiatric Hospital, 2025</t>
+  </si>
+  <si>
+    <t>Nursing Care for Acute Pain in Mrs. P Post–Cesarean Section with CPD using Lavender Aromatherapy in Sebetul Ward, Dr. Midiyato Suratani Naval Hospital</t>
+  </si>
+  <si>
+    <t>Nursing Care for Pain in Mr. D with Rheumatoid Arthritis using Ginger Water Compress at Rumah Bahagia Bintan</t>
+  </si>
+  <si>
+    <t>Nursing Care for Acute Pain in Mr. S Post–Hernia Surgery using Music Therapy in Senoa Ward</t>
+  </si>
+  <si>
+    <t>Nursing Care for Acute Pain in Mr. S with Gastritis through Turmeric Decoction Therapy at Rumah Bahagia Bintan, 2025</t>
+  </si>
+  <si>
+    <t>Nursing Care for Sensory Perception Disturbance: Auditory Hallucinations in Mr. K with Schizophrenia using Occupational Therapy at Tampan Psychiatric Hospital</t>
+  </si>
+  <si>
+    <t>Nursing Care for Ineffective Breastfeeding in Mrs. L Post–Cesarean Section with PROM using Oxytocin Massage in Bougenville Ward, Raja Ahmad Tabib Hospital</t>
+  </si>
+  <si>
+    <t>Nursing Care for Impaired Skin Integrity in Child A with Burns using Aloe Vera Therapy at Cindai Pavilion, Encik Maryam Hospital, Lingga</t>
+  </si>
+  <si>
+    <t>Nursing Care for Hypervolemia in Mrs. K with Chronic Kidney Disease using Ankle Pump Exercise and Leg Elevation in Dahlia Ward, 2025</t>
+  </si>
+  <si>
+    <t>Nursing Care for Ineffective Airway Clearance in Mr. S with COPD using Clapping Technique in Dahlia Ward</t>
+  </si>
+  <si>
+    <t>Nursing Care for Ineffective Airway Clearance in Child H with Bronchopneumonia using Eucalyptus Steam Inhalation in Anyelir Ward</t>
+  </si>
+  <si>
+    <t>Nursing Care for Ineffective Airway Clearance in Mrs. N with COPD Exacerbation using the Active Cycle of Breathing Technique in the Emergency Unit, 2025</t>
+  </si>
+  <si>
+    <t>Nursing Care for Sensory Perception Disturbance in Mr. B with Paranoid Schizophrenia using Art Therapy in Mandau 2 Ward, Tampan Psychiatric Hospital</t>
+  </si>
+  <si>
+    <t>Nursing Care for Anxiety in Child S with Febrile Seizures using Coloring Therapy in Subi Kecil Room, Dr. Midiyato Suratani Naval Hospital</t>
   </si>
 </sst>
 </file>
@@ -829,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1042,17 +1141,31 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,23 +1183,20 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1404,150 +1514,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D7E07E-2456-4103-B778-68197CC400F6}">
-  <dimension ref="A1:BW50"/>
+  <dimension ref="A1:BX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AA13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BW33" sqref="BW33"/>
+      <selection pane="bottomRight" activeCell="BW27" sqref="BW27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.59765625" customWidth="1"/>
-    <col min="3" max="3" width="28.265625" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
-    <col min="6" max="6" width="28.59765625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="26.265625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" style="60" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" customWidth="1"/>
-    <col min="73" max="73" width="22.73046875" customWidth="1"/>
-    <col min="74" max="74" width="18.86328125" customWidth="1"/>
-    <col min="75" max="75" width="27.86328125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="73" max="73" width="22.7109375" customWidth="1"/>
+    <col min="74" max="74" width="18.85546875" customWidth="1"/>
+    <col min="75" max="75" width="216.5703125" style="91" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="163.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="78" t="s">
+      <c r="D1" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="89" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="84" t="s">
+      <c r="I1" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="85" t="s">
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="86" t="s">
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="87" t="s">
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="88" t="s">
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="88"/>
-      <c r="AM1" s="82" t="s">
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="83" t="s">
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="79" t="s">
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="87"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="80" t="s">
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="83"/>
+      <c r="BB1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="81" t="s">
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="84"/>
+      <c r="BE1" s="84"/>
+      <c r="BF1" s="84"/>
+      <c r="BG1" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="78" t="s">
+      <c r="BH1" s="85"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="85"/>
+      <c r="BK1" s="85"/>
+      <c r="BL1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="BM1" s="78" t="s">
+      <c r="BM1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="BN1" s="76" t="s">
+      <c r="BN1" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="BO1" s="78" t="s">
+      <c r="BO1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="BP1" s="78" t="s">
+      <c r="BP1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="BQ1" s="78" t="s">
+      <c r="BQ1" s="74" t="s">
         <v>12</v>
       </c>
       <c r="BR1" s="13" t="s">
@@ -1556,28 +1667,31 @@
       <c r="BS1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="BT1" s="78" t="s">
+      <c r="BT1" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="BU1" s="76" t="s">
+      <c r="BU1" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="BV1" s="76" t="s">
+      <c r="BV1" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="BW1" s="76" t="s">
+      <c r="BW1" s="82" t="s">
         <v>35</v>
       </c>
+      <c r="BX1" s="82" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:75" ht="15" x14ac:dyDescent="0.45">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+    <row r="2" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="39" t="s">
         <v>20</v>
       </c>
@@ -1743,24 +1857,25 @@
       <c r="BK2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="BL2" s="78"/>
-      <c r="BM2" s="78"/>
-      <c r="BN2" s="76"/>
-      <c r="BO2" s="78"/>
-      <c r="BP2" s="78"/>
-      <c r="BQ2" s="78"/>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="74"/>
+      <c r="BN2" s="82"/>
+      <c r="BO2" s="74"/>
+      <c r="BP2" s="74"/>
+      <c r="BQ2" s="74"/>
       <c r="BR2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="BT2" s="78"/>
-      <c r="BU2" s="76"/>
-      <c r="BV2" s="76"/>
-      <c r="BW2" s="76"/>
+      <c r="BT2" s="74"/>
+      <c r="BU2" s="82"/>
+      <c r="BV2" s="82"/>
+      <c r="BW2" s="82"/>
+      <c r="BX2" s="82"/>
     </row>
-    <row r="3" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2028,11 +2143,14 @@
         <f>IF(BT3&gt;=3.51,"Excellent",(IF(BT3&gt;=2.75,"Highly Satisfactory",(IF(BT3&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="BW3" s="54" t="s">
+      <c r="BW3" s="88" t="s">
         <v>91</v>
       </c>
+      <c r="BX3" s="92" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -2300,11 +2418,14 @@
         <f t="shared" ref="BV4:BV34" si="42">IF(BT4&gt;=3.51,"Excellent",(IF(BT4&gt;=2.75,"Highly Satisfactory",(IF(BT4&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="BW4" s="54" t="s">
+      <c r="BW4" s="88" t="s">
         <v>92</v>
       </c>
+      <c r="BX4" s="92" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2572,11 +2693,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW5" s="54" t="s">
+      <c r="BW5" s="88" t="s">
         <v>93</v>
       </c>
+      <c r="BX5" s="92" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -2844,11 +2968,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW6" s="54" t="s">
+      <c r="BW6" s="88" t="s">
         <v>94</v>
       </c>
+      <c r="BX6" s="92" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3116,11 +3243,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW7" s="74" t="s">
+      <c r="BW7" s="89" t="s">
         <v>189</v>
       </c>
+      <c r="BX7" s="92" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3388,11 +3518,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW8" s="54" t="s">
+      <c r="BW8" s="88" t="s">
         <v>95</v>
       </c>
+      <c r="BX8" s="92" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3660,11 +3793,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW9" s="54" t="s">
+      <c r="BW9" s="88" t="s">
         <v>96</v>
       </c>
+      <c r="BX9" s="92" t="s">
+        <v>199</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3932,11 +4068,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW10" s="75" t="s">
+      <c r="BW10" s="90" t="s">
         <v>98</v>
       </c>
+      <c r="BX10" s="92" t="s">
+        <v>200</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -4204,11 +4343,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW11" s="54" t="s">
+      <c r="BW11" s="88" t="s">
         <v>97</v>
       </c>
+      <c r="BX11" s="92" t="s">
+        <v>201</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -4476,11 +4618,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW12" s="54" t="s">
+      <c r="BW12" s="88" t="s">
         <v>99</v>
       </c>
+      <c r="BX12" s="92" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="13" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -4748,11 +4893,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW13" s="54" t="s">
+      <c r="BW13" s="88" t="s">
         <v>100</v>
       </c>
+      <c r="BX13" s="92" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -5020,11 +5168,14 @@
         <f t="shared" si="42"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="BW14" s="54" t="s">
+      <c r="BW14" s="88" t="s">
         <v>101</v>
       </c>
+      <c r="BX14" s="92" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="15" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -5292,11 +5443,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW15" s="54" t="s">
+      <c r="BW15" s="88" t="s">
         <v>102</v>
       </c>
+      <c r="BX15" s="92" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="16" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -5564,11 +5718,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW16" s="54" t="s">
+      <c r="BW16" s="88" t="s">
         <v>103</v>
       </c>
+      <c r="BX16" s="92" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="17" spans="1:75" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -5836,11 +5993,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW17" s="74" t="s">
+      <c r="BW17" s="89" t="s">
         <v>104</v>
       </c>
+      <c r="BX17" s="92" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="18" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -6108,11 +6268,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW18" s="54" t="s">
+      <c r="BW18" s="88" t="s">
         <v>105</v>
       </c>
+      <c r="BX18" s="92" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="19" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -6380,11 +6543,14 @@
         <f t="shared" si="42"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="BW19" s="54" t="s">
+      <c r="BW19" s="88" t="s">
         <v>107</v>
       </c>
+      <c r="BX19" s="92" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="20" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -6652,11 +6818,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW20" s="54" t="s">
+      <c r="BW20" s="88" t="s">
         <v>106</v>
       </c>
+      <c r="BX20" s="92" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="21" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -6924,11 +7093,14 @@
         <f t="shared" si="42"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="BW21" s="54" t="s">
+      <c r="BW21" s="88" t="s">
         <v>108</v>
       </c>
+      <c r="BX21" s="92" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="22" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -7196,11 +7368,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW22" s="54" t="s">
+      <c r="BW22" s="88" t="s">
         <v>109</v>
       </c>
+      <c r="BX22" s="92" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="23" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -7468,11 +7643,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW23" s="54" t="s">
+      <c r="BW23" s="88" t="s">
         <v>110</v>
       </c>
+      <c r="BX23" s="92" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="24" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:76" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -7740,11 +7918,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW24" s="54" t="s">
+      <c r="BW24" s="88" t="s">
         <v>111</v>
       </c>
+      <c r="BX24" s="92" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="25" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -8012,11 +8193,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW25" s="54" t="s">
+      <c r="BW25" s="88" t="s">
         <v>112</v>
       </c>
+      <c r="BX25" s="92" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="26" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -8284,11 +8468,14 @@
         <f t="shared" si="42"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="BW26" s="54" t="s">
+      <c r="BW26" s="88" t="s">
         <v>188</v>
       </c>
+      <c r="BX26" s="92" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="27" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -8556,11 +8743,14 @@
         <f t="shared" si="42"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="BW27" s="54" t="s">
+      <c r="BW27" s="88" t="s">
         <v>113</v>
       </c>
+      <c r="BX27" s="92" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="28" spans="1:75" ht="30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:76" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -8828,11 +9018,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW28" s="54" t="s">
+      <c r="BW28" s="88" t="s">
         <v>190</v>
       </c>
+      <c r="BX28" s="92" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="29" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -9100,11 +9293,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW29" s="54" t="s">
+      <c r="BW29" s="88" t="s">
         <v>114</v>
       </c>
+      <c r="BX29" s="92" t="s">
+        <v>219</v>
+      </c>
     </row>
-    <row r="30" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -9372,11 +9568,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW30" s="54" t="s">
+      <c r="BW30" s="88" t="s">
         <v>115</v>
       </c>
+      <c r="BX30" s="92" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="31" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:76" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -9644,11 +9843,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW31" s="54" t="s">
+      <c r="BW31" s="88" t="s">
         <v>116</v>
       </c>
+      <c r="BX31" s="92" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="32" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -9916,11 +10118,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW32" s="54" t="s">
+      <c r="BW32" s="88" t="s">
         <v>117</v>
       </c>
+      <c r="BX32" s="92" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="33" spans="1:75" ht="15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -10188,11 +10393,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW33" s="54" t="s">
+      <c r="BW33" s="88" t="s">
         <v>191</v>
       </c>
+      <c r="BX33" s="92" t="s">
+        <v>223</v>
+      </c>
     </row>
-    <row r="34" spans="1:75" ht="30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:76" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -10460,11 +10668,14 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW34" s="54" t="s">
+      <c r="BW34" s="88" t="s">
         <v>118</v>
       </c>
+      <c r="BX34" s="92" t="s">
+        <v>224</v>
+      </c>
     </row>
-    <row r="35" spans="1:75" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I35" s="1"/>
       <c r="N35" s="1"/>
       <c r="S35" s="1"/>
@@ -10475,81 +10686,69 @@
       <c r="BR35" s="15"/>
       <c r="BT35" s="52"/>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B38" s="53"/>
       <c r="C38" s="53"/>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B41" s="53"/>
       <c r="C41" s="53"/>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AH1:AL1"/>
+  <mergeCells count="30">
+    <mergeCell ref="BX1:BX2"/>
     <mergeCell ref="BU1:BU2"/>
     <mergeCell ref="BV1:BV2"/>
     <mergeCell ref="BW1:BW2"/>
@@ -10566,6 +10765,19 @@
     <mergeCell ref="BN1:BN2"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ners/2024-2025/Transkip Nilai NERS 2024.xlsx
+++ b/Ners/2024-2025/Transkip Nilai NERS 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\Ners\2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D41FE29-6C4D-4845-823F-024526770E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088E66FE-FE89-4B42-A0E4-E240A2FD28E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334A25BB-288C-4A5C-B9BF-5A8A0F233C73}"/>
   </bookViews>
@@ -1114,9 +1114,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,6 +1138,21 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1148,6 +1160,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,23 +1195,8 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1517,10 +1517,10 @@
   <dimension ref="A1:BX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BX3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BW27" sqref="BW27"/>
+      <selection pane="bottomRight" activeCell="BR3" sqref="BR3:BR34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,130 +1535,131 @@
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="70" max="70" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="22.7109375" customWidth="1"/>
     <col min="74" max="74" width="18.85546875" customWidth="1"/>
-    <col min="75" max="75" width="216.5703125" style="91" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="216.5703125" style="76" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="163.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="74" t="s">
+      <c r="D1" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="77" t="s">
+      <c r="I1" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="78" t="s">
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="79" t="s">
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="80" t="s">
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="81" t="s">
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="86" t="s">
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="87" t="s">
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="83" t="s">
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="83"/>
-      <c r="BB1" s="84" t="s">
+      <c r="AX1" s="88"/>
+      <c r="AY1" s="88"/>
+      <c r="AZ1" s="88"/>
+      <c r="BA1" s="88"/>
+      <c r="BB1" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
-      <c r="BE1" s="84"/>
-      <c r="BF1" s="84"/>
-      <c r="BG1" s="85" t="s">
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BH1" s="85"/>
-      <c r="BI1" s="85"/>
-      <c r="BJ1" s="85"/>
-      <c r="BK1" s="85"/>
-      <c r="BL1" s="74" t="s">
+      <c r="BH1" s="90"/>
+      <c r="BI1" s="90"/>
+      <c r="BJ1" s="90"/>
+      <c r="BK1" s="90"/>
+      <c r="BL1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="BM1" s="74" t="s">
+      <c r="BM1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="BN1" s="82" t="s">
+      <c r="BN1" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="BO1" s="74" t="s">
+      <c r="BO1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="BP1" s="74" t="s">
+      <c r="BP1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="BQ1" s="74" t="s">
+      <c r="BQ1" s="78" t="s">
         <v>12</v>
       </c>
       <c r="BR1" s="13" t="s">
@@ -1667,31 +1668,31 @@
       <c r="BS1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="BT1" s="74" t="s">
+      <c r="BT1" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="BU1" s="82" t="s">
+      <c r="BU1" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="BV1" s="82" t="s">
+      <c r="BV1" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="BW1" s="82" t="s">
+      <c r="BW1" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="BX1" s="82" t="s">
+      <c r="BX1" s="87" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="74"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="39" t="s">
         <v>20</v>
       </c>
@@ -1857,29 +1858,29 @@
       <c r="BK2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="BL2" s="74"/>
-      <c r="BM2" s="74"/>
-      <c r="BN2" s="82"/>
-      <c r="BO2" s="74"/>
-      <c r="BP2" s="74"/>
-      <c r="BQ2" s="74"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="87"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
       <c r="BR2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="BT2" s="74"/>
-      <c r="BU2" s="82"/>
-      <c r="BV2" s="82"/>
-      <c r="BW2" s="82"/>
-      <c r="BX2" s="82"/>
+      <c r="BT2" s="78"/>
+      <c r="BU2" s="87"/>
+      <c r="BV2" s="87"/>
+      <c r="BW2" s="87"/>
+      <c r="BX2" s="87"/>
     </row>
     <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>183</v>
       </c>
       <c r="C3" s="6">
@@ -1897,7 +1898,7 @@
       <c r="G3" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="67" t="s">
         <v>120</v>
       </c>
       <c r="I3" s="17">
@@ -1969,14 +1970,14 @@
       <c r="AA3" s="33">
         <v>4</v>
       </c>
-      <c r="AB3" s="72">
+      <c r="AB3" s="71">
         <f t="shared" ref="AB3:AB34" si="8">Z3*AA3</f>
         <v>14</v>
       </c>
       <c r="AC3" s="49">
         <v>76</v>
       </c>
-      <c r="AD3" s="73" t="str">
+      <c r="AD3" s="72" t="str">
         <f t="shared" ref="AD3:AD34" si="9">IF(AC3&gt;=80,"A",IF(AC3&gt;=75,"B+",IF(AC3&gt;=70,"B",IF(AC3&gt;=65,"C+",IF(AC3&gt;=60,"C",IF(AC3&gt;=55,"D",IF(AC3&lt;55,"E")))))))</f>
         <v>B+</v>
       </c>
@@ -2123,11 +2124,11 @@
         <f>(BO3/BP3)</f>
         <v>4</v>
       </c>
-      <c r="BR3" s="11">
+      <c r="BR3" s="62">
         <f t="shared" ref="BR3:BR34" si="22">BL3+BO3</f>
         <v>142</v>
       </c>
-      <c r="BS3" s="10">
+      <c r="BS3" s="9">
         <f t="shared" ref="BS3:BS34" si="23">BM3+BP3</f>
         <v>38</v>
       </c>
@@ -2143,10 +2144,10 @@
         <f>IF(BT3&gt;=3.51,"Excellent",(IF(BT3&gt;=2.75,"Highly Satisfactory",(IF(BT3&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="BW3" s="88" t="s">
+      <c r="BW3" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="BX3" s="92" t="s">
+      <c r="BX3" s="77" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2154,7 +2155,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>182</v>
       </c>
       <c r="C4" s="6">
@@ -2172,7 +2173,7 @@
       <c r="G4" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="67" t="s">
         <v>121</v>
       </c>
       <c r="I4" s="17">
@@ -2244,14 +2245,14 @@
       <c r="AA4" s="33">
         <v>4</v>
       </c>
-      <c r="AB4" s="72">
+      <c r="AB4" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC4" s="49">
         <v>77</v>
       </c>
-      <c r="AD4" s="73" t="str">
+      <c r="AD4" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -2398,11 +2399,11 @@
         <f t="shared" ref="BQ4:BQ34" si="39">(BO4/BP4)</f>
         <v>4</v>
       </c>
-      <c r="BR4" s="11">
+      <c r="BR4" s="62">
         <f t="shared" si="22"/>
         <v>144.5</v>
       </c>
-      <c r="BS4" s="10">
+      <c r="BS4" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -2418,10 +2419,10 @@
         <f t="shared" ref="BV4:BV34" si="42">IF(BT4&gt;=3.51,"Excellent",(IF(BT4&gt;=2.75,"Highly Satisfactory",(IF(BT4&gt;=2,"Satisfactory","FAILED")))))</f>
         <v>Excellent</v>
       </c>
-      <c r="BW4" s="88" t="s">
+      <c r="BW4" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="BX4" s="92" t="s">
+      <c r="BX4" s="77" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2429,7 +2430,7 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>181</v>
       </c>
       <c r="C5" s="6">
@@ -2447,7 +2448,7 @@
       <c r="G5" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="67" t="s">
         <v>122</v>
       </c>
       <c r="I5" s="17">
@@ -2519,14 +2520,14 @@
       <c r="AA5" s="33">
         <v>4</v>
       </c>
-      <c r="AB5" s="72">
+      <c r="AB5" s="71">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AC5" s="49">
         <v>79</v>
       </c>
-      <c r="AD5" s="73" t="str">
+      <c r="AD5" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -2673,11 +2674,11 @@
         <f t="shared" si="39"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="BR5" s="11">
+      <c r="BR5" s="62">
         <f t="shared" si="22"/>
         <v>143</v>
       </c>
-      <c r="BS5" s="10">
+      <c r="BS5" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -2693,10 +2694,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW5" s="88" t="s">
+      <c r="BW5" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="BX5" s="92" t="s">
+      <c r="BX5" s="77" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2704,7 +2705,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>180</v>
       </c>
       <c r="C6" s="6">
@@ -2722,7 +2723,7 @@
       <c r="G6" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="67" t="s">
         <v>123</v>
       </c>
       <c r="I6" s="17">
@@ -2794,14 +2795,14 @@
       <c r="AA6" s="33">
         <v>4</v>
       </c>
-      <c r="AB6" s="72">
+      <c r="AB6" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC6" s="49">
         <v>78</v>
       </c>
-      <c r="AD6" s="73" t="str">
+      <c r="AD6" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -2948,11 +2949,11 @@
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="BR6" s="11">
+      <c r="BR6" s="62">
         <f t="shared" si="22"/>
         <v>143</v>
       </c>
-      <c r="BS6" s="10">
+      <c r="BS6" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -2968,10 +2969,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW6" s="88" t="s">
+      <c r="BW6" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="BX6" s="92" t="s">
+      <c r="BX6" s="77" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2979,7 +2980,7 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="6">
@@ -2997,7 +2998,7 @@
       <c r="G7" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="67" t="s">
         <v>124</v>
       </c>
       <c r="I7" s="17">
@@ -3069,14 +3070,14 @@
       <c r="AA7" s="33">
         <v>4</v>
       </c>
-      <c r="AB7" s="72">
+      <c r="AB7" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC7" s="49">
         <v>76</v>
       </c>
-      <c r="AD7" s="73" t="str">
+      <c r="AD7" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -3223,11 +3224,11 @@
         <f t="shared" si="39"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="BR7" s="11">
+      <c r="BR7" s="62">
         <f t="shared" si="22"/>
         <v>141</v>
       </c>
-      <c r="BS7" s="10">
+      <c r="BS7" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -3243,10 +3244,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW7" s="89" t="s">
+      <c r="BW7" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="BX7" s="92" t="s">
+      <c r="BX7" s="77" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3254,7 +3255,7 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="68" t="s">
         <v>178</v>
       </c>
       <c r="C8" s="6">
@@ -3272,7 +3273,7 @@
       <c r="G8" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="67" t="s">
         <v>125</v>
       </c>
       <c r="I8" s="17">
@@ -3344,14 +3345,14 @@
       <c r="AA8" s="33">
         <v>4</v>
       </c>
-      <c r="AB8" s="72">
+      <c r="AB8" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC8" s="49">
         <v>79</v>
       </c>
-      <c r="AD8" s="73" t="str">
+      <c r="AD8" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -3498,11 +3499,11 @@
         <f t="shared" si="39"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="BR8" s="11">
+      <c r="BR8" s="62">
         <f t="shared" si="22"/>
         <v>141</v>
       </c>
-      <c r="BS8" s="10">
+      <c r="BS8" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -3518,10 +3519,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW8" s="88" t="s">
+      <c r="BW8" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="BX8" s="92" t="s">
+      <c r="BX8" s="77" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3529,7 +3530,7 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="68" t="s">
         <v>177</v>
       </c>
       <c r="C9" s="6">
@@ -3547,7 +3548,7 @@
       <c r="G9" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="67" t="s">
         <v>126</v>
       </c>
       <c r="I9" s="17">
@@ -3619,14 +3620,14 @@
       <c r="AA9" s="33">
         <v>4</v>
       </c>
-      <c r="AB9" s="72">
+      <c r="AB9" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC9" s="49">
         <v>76</v>
       </c>
-      <c r="AD9" s="73" t="str">
+      <c r="AD9" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -3773,11 +3774,11 @@
         <f t="shared" si="39"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="BR9" s="11">
+      <c r="BR9" s="62">
         <f t="shared" si="22"/>
         <v>138</v>
       </c>
-      <c r="BS9" s="10">
+      <c r="BS9" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -3793,10 +3794,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW9" s="88" t="s">
+      <c r="BW9" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="BX9" s="92" t="s">
+      <c r="BX9" s="77" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3804,7 +3805,7 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="68" t="s">
         <v>176</v>
       </c>
       <c r="C10" s="6">
@@ -3822,7 +3823,7 @@
       <c r="G10" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="67" t="s">
         <v>127</v>
       </c>
       <c r="I10" s="17">
@@ -3894,14 +3895,14 @@
       <c r="AA10" s="33">
         <v>4</v>
       </c>
-      <c r="AB10" s="72">
+      <c r="AB10" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC10" s="49">
         <v>80</v>
       </c>
-      <c r="AD10" s="73" t="str">
+      <c r="AD10" s="72" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
@@ -4048,11 +4049,11 @@
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="BR10" s="65">
+      <c r="BR10" s="92">
         <f t="shared" si="22"/>
         <v>145.5</v>
       </c>
-      <c r="BS10" s="10">
+      <c r="BS10" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -4068,10 +4069,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW10" s="90" t="s">
+      <c r="BW10" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="BX10" s="92" t="s">
+      <c r="BX10" s="77" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4079,7 +4080,7 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="68" t="s">
         <v>175</v>
       </c>
       <c r="C11" s="6">
@@ -4097,7 +4098,7 @@
       <c r="G11" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="67" t="s">
         <v>128</v>
       </c>
       <c r="I11" s="17">
@@ -4169,14 +4170,14 @@
       <c r="AA11" s="33">
         <v>4</v>
       </c>
-      <c r="AB11" s="72">
+      <c r="AB11" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC11" s="49">
         <v>79</v>
       </c>
-      <c r="AD11" s="73" t="str">
+      <c r="AD11" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -4323,11 +4324,11 @@
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="BR11" s="11">
+      <c r="BR11" s="62">
         <f t="shared" si="22"/>
         <v>143</v>
       </c>
-      <c r="BS11" s="10">
+      <c r="BS11" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -4343,10 +4344,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW11" s="88" t="s">
+      <c r="BW11" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="BX11" s="92" t="s">
+      <c r="BX11" s="77" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4354,7 +4355,7 @@
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="68" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="6">
@@ -4372,7 +4373,7 @@
       <c r="G12" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="67" t="s">
         <v>129</v>
       </c>
       <c r="I12" s="17">
@@ -4444,14 +4445,14 @@
       <c r="AA12" s="33">
         <v>4</v>
       </c>
-      <c r="AB12" s="72">
+      <c r="AB12" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC12" s="49">
         <v>76</v>
       </c>
-      <c r="AD12" s="73" t="str">
+      <c r="AD12" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -4598,11 +4599,11 @@
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="BR12" s="11">
+      <c r="BR12" s="62">
         <f t="shared" si="22"/>
         <v>143</v>
       </c>
-      <c r="BS12" s="10">
+      <c r="BS12" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -4618,10 +4619,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW12" s="88" t="s">
+      <c r="BW12" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="BX12" s="92" t="s">
+      <c r="BX12" s="77" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4629,7 +4630,7 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="68" t="s">
         <v>173</v>
       </c>
       <c r="C13" s="6">
@@ -4647,7 +4648,7 @@
       <c r="G13" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="67" t="s">
         <v>130</v>
       </c>
       <c r="I13" s="17">
@@ -4719,14 +4720,14 @@
       <c r="AA13" s="33">
         <v>4</v>
       </c>
-      <c r="AB13" s="72">
+      <c r="AB13" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC13" s="49">
         <v>75</v>
       </c>
-      <c r="AD13" s="73" t="str">
+      <c r="AD13" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -4873,11 +4874,11 @@
         <f t="shared" si="39"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="BR13" s="11">
+      <c r="BR13" s="62">
         <f t="shared" si="22"/>
         <v>136</v>
       </c>
-      <c r="BS13" s="10">
+      <c r="BS13" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -4893,10 +4894,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW13" s="88" t="s">
+      <c r="BW13" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="BX13" s="92" t="s">
+      <c r="BX13" s="77" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4904,7 +4905,7 @@
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="68" t="s">
         <v>172</v>
       </c>
       <c r="C14" s="6">
@@ -4922,7 +4923,7 @@
       <c r="G14" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="67" t="s">
         <v>131</v>
       </c>
       <c r="I14" s="17">
@@ -4994,14 +4995,14 @@
       <c r="AA14" s="33">
         <v>4</v>
       </c>
-      <c r="AB14" s="72">
+      <c r="AB14" s="71">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC14" s="49">
         <v>78.53</v>
       </c>
-      <c r="AD14" s="73" t="str">
+      <c r="AD14" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -5106,7 +5107,7 @@
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="BG14" s="66">
+      <c r="BG14" s="65">
         <v>76</v>
       </c>
       <c r="BH14" s="7" t="str">
@@ -5148,11 +5149,11 @@
         <f t="shared" si="39"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="BR14" s="11">
+      <c r="BR14" s="62">
         <f t="shared" si="22"/>
         <v>133</v>
       </c>
-      <c r="BS14" s="10">
+      <c r="BS14" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -5168,10 +5169,10 @@
         <f t="shared" si="42"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="BW14" s="88" t="s">
+      <c r="BW14" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="BX14" s="92" t="s">
+      <c r="BX14" s="77" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5179,7 +5180,7 @@
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="68" t="s">
         <v>171</v>
       </c>
       <c r="C15" s="6">
@@ -5197,7 +5198,7 @@
       <c r="G15" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="67" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="17">
@@ -5269,14 +5270,14 @@
       <c r="AA15" s="33">
         <v>4</v>
       </c>
-      <c r="AB15" s="72">
+      <c r="AB15" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC15" s="49">
         <v>79.7</v>
       </c>
-      <c r="AD15" s="73" t="str">
+      <c r="AD15" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -5423,11 +5424,11 @@
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="BR15" s="11">
+      <c r="BR15" s="62">
         <f t="shared" si="22"/>
         <v>142.5</v>
       </c>
-      <c r="BS15" s="10">
+      <c r="BS15" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -5443,10 +5444,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW15" s="88" t="s">
+      <c r="BW15" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="BX15" s="92" t="s">
+      <c r="BX15" s="77" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5454,7 +5455,7 @@
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="69" t="s">
         <v>170</v>
       </c>
       <c r="C16" s="57">
@@ -5472,7 +5473,7 @@
       <c r="G16" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="67" t="s">
         <v>133</v>
       </c>
       <c r="I16" s="17">
@@ -5544,14 +5545,14 @@
       <c r="AA16" s="33">
         <v>4</v>
       </c>
-      <c r="AB16" s="72">
+      <c r="AB16" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC16" s="49">
         <v>80</v>
       </c>
-      <c r="AD16" s="73" t="str">
+      <c r="AD16" s="72" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
@@ -5698,11 +5699,11 @@
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="BR16" s="11">
+      <c r="BR16" s="62">
         <f t="shared" si="22"/>
         <v>143</v>
       </c>
-      <c r="BS16" s="10">
+      <c r="BS16" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -5718,10 +5719,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW16" s="88" t="s">
+      <c r="BW16" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="BX16" s="92" t="s">
+      <c r="BX16" s="77" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5729,7 +5730,7 @@
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="68" t="s">
         <v>169</v>
       </c>
       <c r="C17" s="6">
@@ -5747,7 +5748,7 @@
       <c r="G17" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="67" t="s">
         <v>134</v>
       </c>
       <c r="I17" s="17">
@@ -5819,14 +5820,14 @@
       <c r="AA17" s="33">
         <v>4</v>
       </c>
-      <c r="AB17" s="72">
+      <c r="AB17" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC17" s="49">
         <v>78</v>
       </c>
-      <c r="AD17" s="73" t="str">
+      <c r="AD17" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -5931,7 +5932,7 @@
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="BG17" s="66">
+      <c r="BG17" s="65">
         <v>76</v>
       </c>
       <c r="BH17" s="7" t="str">
@@ -5973,11 +5974,11 @@
         <f t="shared" si="39"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="BR17" s="11">
+      <c r="BR17" s="62">
         <f t="shared" si="22"/>
         <v>134.5</v>
       </c>
-      <c r="BS17" s="10">
+      <c r="BS17" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -5993,10 +5994,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW17" s="89" t="s">
+      <c r="BW17" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="BX17" s="92" t="s">
+      <c r="BX17" s="77" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6004,7 +6005,7 @@
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="68" t="s">
         <v>168</v>
       </c>
       <c r="C18" s="6">
@@ -6022,7 +6023,7 @@
       <c r="G18" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="68" t="s">
+      <c r="H18" s="67" t="s">
         <v>135</v>
       </c>
       <c r="I18" s="17">
@@ -6094,14 +6095,14 @@
       <c r="AA18" s="33">
         <v>4</v>
       </c>
-      <c r="AB18" s="72">
+      <c r="AB18" s="71">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC18" s="49">
         <v>75</v>
       </c>
-      <c r="AD18" s="73" t="str">
+      <c r="AD18" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -6248,11 +6249,11 @@
         <f t="shared" si="39"/>
         <v>3.7777777777777777</v>
       </c>
-      <c r="BR18" s="11">
+      <c r="BR18" s="62">
         <f t="shared" si="22"/>
         <v>134.5</v>
       </c>
-      <c r="BS18" s="10">
+      <c r="BS18" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -6268,10 +6269,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW18" s="88" t="s">
+      <c r="BW18" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="BX18" s="92" t="s">
+      <c r="BX18" s="77" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6279,7 +6280,7 @@
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>167</v>
       </c>
       <c r="C19" s="6">
@@ -6297,7 +6298,7 @@
       <c r="G19" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="67" t="s">
         <v>136</v>
       </c>
       <c r="I19" s="17">
@@ -6369,14 +6370,14 @@
       <c r="AA19" s="33">
         <v>4</v>
       </c>
-      <c r="AB19" s="72">
+      <c r="AB19" s="71">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC19" s="49">
         <v>76</v>
       </c>
-      <c r="AD19" s="73" t="str">
+      <c r="AD19" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -6523,11 +6524,11 @@
         <f t="shared" si="39"/>
         <v>3.7777777777777777</v>
       </c>
-      <c r="BR19" s="11">
+      <c r="BR19" s="62">
         <f t="shared" si="22"/>
         <v>133</v>
       </c>
-      <c r="BS19" s="10">
+      <c r="BS19" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -6543,10 +6544,10 @@
         <f t="shared" si="42"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="BW19" s="88" t="s">
+      <c r="BW19" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="BX19" s="92" t="s">
+      <c r="BX19" s="77" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6554,7 +6555,7 @@
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="68" t="s">
         <v>166</v>
       </c>
       <c r="C20" s="6">
@@ -6572,7 +6573,7 @@
       <c r="G20" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="67" t="s">
         <v>137</v>
       </c>
       <c r="I20" s="17">
@@ -6644,14 +6645,14 @@
       <c r="AA20" s="33">
         <v>4</v>
       </c>
-      <c r="AB20" s="72">
+      <c r="AB20" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC20" s="49">
         <v>76</v>
       </c>
-      <c r="AD20" s="73" t="str">
+      <c r="AD20" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -6720,7 +6721,7 @@
         <f t="shared" si="30"/>
         <v>14</v>
       </c>
-      <c r="AW20" s="67">
+      <c r="AW20" s="66">
         <v>75</v>
       </c>
       <c r="AX20" s="7" t="str">
@@ -6798,11 +6799,11 @@
         <f t="shared" si="39"/>
         <v>3.7777777777777777</v>
       </c>
-      <c r="BR20" s="11">
+      <c r="BR20" s="62">
         <f t="shared" si="22"/>
         <v>133.5</v>
       </c>
-      <c r="BS20" s="10">
+      <c r="BS20" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -6818,10 +6819,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW20" s="88" t="s">
+      <c r="BW20" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="BX20" s="92" t="s">
+      <c r="BX20" s="77" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6829,7 +6830,7 @@
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="68" t="s">
         <v>165</v>
       </c>
       <c r="C21" s="6">
@@ -6847,7 +6848,7 @@
       <c r="G21" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="67" t="s">
         <v>138</v>
       </c>
       <c r="I21" s="17">
@@ -6919,14 +6920,14 @@
       <c r="AA21" s="33">
         <v>4</v>
       </c>
-      <c r="AB21" s="72">
+      <c r="AB21" s="71">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC21" s="49">
         <v>75</v>
       </c>
-      <c r="AD21" s="73" t="str">
+      <c r="AD21" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -7073,11 +7074,11 @@
         <f t="shared" si="39"/>
         <v>3.7777777777777777</v>
       </c>
-      <c r="BR21" s="11">
+      <c r="BR21" s="62">
         <f t="shared" si="22"/>
         <v>132</v>
       </c>
-      <c r="BS21" s="10">
+      <c r="BS21" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -7093,10 +7094,10 @@
         <f t="shared" si="42"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="BW21" s="88" t="s">
+      <c r="BW21" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="BX21" s="92" t="s">
+      <c r="BX21" s="77" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7104,7 +7105,7 @@
       <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="68" t="s">
         <v>164</v>
       </c>
       <c r="C22" s="6">
@@ -7122,7 +7123,7 @@
       <c r="G22" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="67" t="s">
         <v>139</v>
       </c>
       <c r="I22" s="17">
@@ -7194,14 +7195,14 @@
       <c r="AA22" s="33">
         <v>4</v>
       </c>
-      <c r="AB22" s="72">
+      <c r="AB22" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC22" s="49">
         <v>79</v>
       </c>
-      <c r="AD22" s="73" t="str">
+      <c r="AD22" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -7306,7 +7307,7 @@
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="BG22" s="66">
+      <c r="BG22" s="65">
         <v>76</v>
       </c>
       <c r="BH22" s="7" t="str">
@@ -7348,11 +7349,11 @@
         <f t="shared" si="39"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="BR22" s="11">
+      <c r="BR22" s="62">
         <f t="shared" si="22"/>
         <v>134.5</v>
       </c>
-      <c r="BS22" s="10">
+      <c r="BS22" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -7368,10 +7369,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW22" s="88" t="s">
+      <c r="BW22" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="BX22" s="92" t="s">
+      <c r="BX22" s="77" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7379,7 +7380,7 @@
       <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="68" t="s">
         <v>163</v>
       </c>
       <c r="C23" s="6">
@@ -7397,7 +7398,7 @@
       <c r="G23" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="67" t="s">
         <v>140</v>
       </c>
       <c r="I23" s="17">
@@ -7469,14 +7470,14 @@
       <c r="AA23" s="33">
         <v>4</v>
       </c>
-      <c r="AB23" s="72">
+      <c r="AB23" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC23" s="49">
         <v>77</v>
       </c>
-      <c r="AD23" s="73" t="str">
+      <c r="AD23" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -7581,7 +7582,7 @@
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="BG23" s="66">
+      <c r="BG23" s="65">
         <v>76</v>
       </c>
       <c r="BH23" s="7" t="str">
@@ -7623,11 +7624,11 @@
         <f t="shared" si="39"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="BR23" s="11">
+      <c r="BR23" s="62">
         <f t="shared" si="22"/>
         <v>134.5</v>
       </c>
-      <c r="BS23" s="10">
+      <c r="BS23" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -7643,10 +7644,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW23" s="88" t="s">
+      <c r="BW23" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="BX23" s="92" t="s">
+      <c r="BX23" s="77" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7654,7 +7655,7 @@
       <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="68" t="s">
         <v>162</v>
       </c>
       <c r="C24" s="6">
@@ -7672,7 +7673,7 @@
       <c r="G24" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="68" t="s">
+      <c r="H24" s="67" t="s">
         <v>141</v>
       </c>
       <c r="I24" s="17">
@@ -7744,14 +7745,14 @@
       <c r="AA24" s="33">
         <v>4</v>
       </c>
-      <c r="AB24" s="72">
+      <c r="AB24" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC24" s="49">
         <v>79</v>
       </c>
-      <c r="AD24" s="73" t="str">
+      <c r="AD24" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -7898,11 +7899,11 @@
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="BR24" s="11">
+      <c r="BR24" s="62">
         <f t="shared" si="22"/>
         <v>137.5</v>
       </c>
-      <c r="BS24" s="10">
+      <c r="BS24" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -7918,10 +7919,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW24" s="88" t="s">
+      <c r="BW24" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="BX24" s="92" t="s">
+      <c r="BX24" s="77" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7929,7 +7930,7 @@
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="68" t="s">
         <v>161</v>
       </c>
       <c r="C25" s="6">
@@ -7947,7 +7948,7 @@
       <c r="G25" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="67" t="s">
         <v>142</v>
       </c>
       <c r="I25" s="17">
@@ -8019,14 +8020,14 @@
       <c r="AA25" s="33">
         <v>4</v>
       </c>
-      <c r="AB25" s="72">
+      <c r="AB25" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC25" s="49">
         <v>80</v>
       </c>
-      <c r="AD25" s="73" t="str">
+      <c r="AD25" s="72" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
@@ -8173,11 +8174,11 @@
         <f t="shared" si="39"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="BR25" s="11">
+      <c r="BR25" s="62">
         <f t="shared" si="22"/>
         <v>142.5</v>
       </c>
-      <c r="BS25" s="10">
+      <c r="BS25" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -8193,10 +8194,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW25" s="88" t="s">
+      <c r="BW25" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="BX25" s="92" t="s">
+      <c r="BX25" s="77" t="s">
         <v>215</v>
       </c>
     </row>
@@ -8204,7 +8205,7 @@
       <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="68" t="s">
         <v>160</v>
       </c>
       <c r="C26" s="6">
@@ -8222,7 +8223,7 @@
       <c r="G26" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="67" t="s">
         <v>143</v>
       </c>
       <c r="I26" s="17">
@@ -8294,14 +8295,14 @@
       <c r="AA26" s="33">
         <v>4</v>
       </c>
-      <c r="AB26" s="72">
+      <c r="AB26" s="71">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC26" s="49">
         <v>76</v>
       </c>
-      <c r="AD26" s="73" t="str">
+      <c r="AD26" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -8448,11 +8449,11 @@
         <f t="shared" si="39"/>
         <v>3.7777777777777777</v>
       </c>
-      <c r="BR26" s="11">
+      <c r="BR26" s="62">
         <f t="shared" si="22"/>
         <v>133</v>
       </c>
-      <c r="BS26" s="10">
+      <c r="BS26" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -8468,10 +8469,10 @@
         <f t="shared" si="42"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="BW26" s="88" t="s">
+      <c r="BW26" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="BX26" s="92" t="s">
+      <c r="BX26" s="77" t="s">
         <v>216</v>
       </c>
     </row>
@@ -8479,7 +8480,7 @@
       <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="68" t="s">
         <v>159</v>
       </c>
       <c r="C27" s="6">
@@ -8497,7 +8498,7 @@
       <c r="G27" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="68" t="s">
+      <c r="H27" s="67" t="s">
         <v>144</v>
       </c>
       <c r="I27" s="17">
@@ -8569,14 +8570,14 @@
       <c r="AA27" s="33">
         <v>4</v>
       </c>
-      <c r="AB27" s="72">
+      <c r="AB27" s="71">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC27" s="49">
         <v>76</v>
       </c>
-      <c r="AD27" s="73" t="str">
+      <c r="AD27" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -8723,11 +8724,11 @@
         <f t="shared" si="39"/>
         <v>3.7777777777777777</v>
       </c>
-      <c r="BR27" s="11">
+      <c r="BR27" s="62">
         <f t="shared" si="22"/>
         <v>133</v>
       </c>
-      <c r="BS27" s="10">
+      <c r="BS27" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -8743,10 +8744,10 @@
         <f t="shared" si="42"/>
         <v>Highly Satisfactory</v>
       </c>
-      <c r="BW27" s="88" t="s">
+      <c r="BW27" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="BX27" s="92" t="s">
+      <c r="BX27" s="77" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8754,7 +8755,7 @@
       <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="68" t="s">
         <v>158</v>
       </c>
       <c r="C28" s="6">
@@ -8772,7 +8773,7 @@
       <c r="G28" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="67" t="s">
         <v>145</v>
       </c>
       <c r="I28" s="17">
@@ -8844,14 +8845,14 @@
       <c r="AA28" s="33">
         <v>4</v>
       </c>
-      <c r="AB28" s="72">
+      <c r="AB28" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC28" s="49">
         <v>80</v>
       </c>
-      <c r="AD28" s="73" t="str">
+      <c r="AD28" s="72" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
@@ -8998,11 +8999,11 @@
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="BR28" s="65">
+      <c r="BR28" s="92">
         <f t="shared" si="22"/>
         <v>145.5</v>
       </c>
-      <c r="BS28" s="10">
+      <c r="BS28" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -9018,10 +9019,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW28" s="88" t="s">
+      <c r="BW28" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="BX28" s="92" t="s">
+      <c r="BX28" s="77" t="s">
         <v>218</v>
       </c>
     </row>
@@ -9029,7 +9030,7 @@
       <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="68" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="6">
@@ -9047,7 +9048,7 @@
       <c r="G29" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="67" t="s">
         <v>146</v>
       </c>
       <c r="I29" s="17">
@@ -9119,14 +9120,14 @@
       <c r="AA29" s="33">
         <v>4</v>
       </c>
-      <c r="AB29" s="72">
+      <c r="AB29" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC29" s="49">
         <v>78</v>
       </c>
-      <c r="AD29" s="73" t="str">
+      <c r="AD29" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -9273,11 +9274,11 @@
         <f t="shared" si="39"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="BR29" s="11">
+      <c r="BR29" s="62">
         <f t="shared" si="22"/>
         <v>135.5</v>
       </c>
-      <c r="BS29" s="10">
+      <c r="BS29" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -9293,10 +9294,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW29" s="88" t="s">
+      <c r="BW29" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="BX29" s="92" t="s">
+      <c r="BX29" s="77" t="s">
         <v>219</v>
       </c>
     </row>
@@ -9304,7 +9305,7 @@
       <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="68" t="s">
         <v>156</v>
       </c>
       <c r="C30" s="6">
@@ -9322,7 +9323,7 @@
       <c r="G30" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="67" t="s">
         <v>147</v>
       </c>
       <c r="I30" s="17">
@@ -9394,14 +9395,14 @@
       <c r="AA30" s="33">
         <v>4</v>
       </c>
-      <c r="AB30" s="72">
+      <c r="AB30" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC30" s="49">
         <v>77</v>
       </c>
-      <c r="AD30" s="73" t="str">
+      <c r="AD30" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -9506,7 +9507,7 @@
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="BG30" s="66">
+      <c r="BG30" s="65">
         <v>76</v>
       </c>
       <c r="BH30" s="7" t="str">
@@ -9548,11 +9549,11 @@
         <f t="shared" si="39"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="BR30" s="11">
+      <c r="BR30" s="62">
         <f t="shared" si="22"/>
         <v>133.5</v>
       </c>
-      <c r="BS30" s="10">
+      <c r="BS30" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -9568,10 +9569,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW30" s="88" t="s">
+      <c r="BW30" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="BX30" s="92" t="s">
+      <c r="BX30" s="77" t="s">
         <v>220</v>
       </c>
     </row>
@@ -9579,7 +9580,7 @@
       <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="68" t="s">
         <v>155</v>
       </c>
       <c r="C31" s="6">
@@ -9597,7 +9598,7 @@
       <c r="G31" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="67" t="s">
         <v>148</v>
       </c>
       <c r="I31" s="17">
@@ -9669,14 +9670,14 @@
       <c r="AA31" s="33">
         <v>4</v>
       </c>
-      <c r="AB31" s="72">
+      <c r="AB31" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC31" s="49">
         <v>79</v>
       </c>
-      <c r="AD31" s="73" t="str">
+      <c r="AD31" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -9823,11 +9824,11 @@
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="BR31" s="11">
+      <c r="BR31" s="62">
         <f t="shared" si="22"/>
         <v>139</v>
       </c>
-      <c r="BS31" s="10">
+      <c r="BS31" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -9843,10 +9844,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW31" s="88" t="s">
+      <c r="BW31" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="BX31" s="92" t="s">
+      <c r="BX31" s="77" t="s">
         <v>221</v>
       </c>
     </row>
@@ -9854,7 +9855,7 @@
       <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="68" t="s">
         <v>154</v>
       </c>
       <c r="C32" s="6">
@@ -9872,7 +9873,7 @@
       <c r="G32" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="67" t="s">
         <v>149</v>
       </c>
       <c r="I32" s="17">
@@ -9944,14 +9945,14 @@
       <c r="AA32" s="33">
         <v>4</v>
       </c>
-      <c r="AB32" s="72">
+      <c r="AB32" s="71">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC32" s="49">
         <v>76</v>
       </c>
-      <c r="AD32" s="73" t="str">
+      <c r="AD32" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -10098,11 +10099,11 @@
         <f t="shared" si="39"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="BR32" s="11">
+      <c r="BR32" s="62">
         <f t="shared" si="22"/>
         <v>136</v>
       </c>
-      <c r="BS32" s="10">
+      <c r="BS32" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -10118,10 +10119,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW32" s="88" t="s">
+      <c r="BW32" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="BX32" s="92" t="s">
+      <c r="BX32" s="77" t="s">
         <v>222</v>
       </c>
     </row>
@@ -10129,7 +10130,7 @@
       <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="70" t="s">
         <v>153</v>
       </c>
       <c r="C33" s="16">
@@ -10147,7 +10148,7 @@
       <c r="G33" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="68" t="s">
+      <c r="H33" s="67" t="s">
         <v>150</v>
       </c>
       <c r="I33" s="17">
@@ -10219,14 +10220,14 @@
       <c r="AA33" s="33">
         <v>4</v>
       </c>
-      <c r="AB33" s="72">
+      <c r="AB33" s="71">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AC33" s="49">
         <v>80</v>
       </c>
-      <c r="AD33" s="73" t="str">
+      <c r="AD33" s="72" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
@@ -10295,7 +10296,7 @@
         <f t="shared" si="30"/>
         <v>14</v>
       </c>
-      <c r="AW33" s="67">
+      <c r="AW33" s="66">
         <v>75</v>
       </c>
       <c r="AX33" s="7" t="str">
@@ -10373,11 +10374,11 @@
         <f t="shared" si="39"/>
         <v>3.7777777777777777</v>
       </c>
-      <c r="BR33" s="11">
+      <c r="BR33" s="62">
         <f t="shared" si="22"/>
         <v>137.5</v>
       </c>
-      <c r="BS33" s="10">
+      <c r="BS33" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -10393,10 +10394,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW33" s="88" t="s">
+      <c r="BW33" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="BX33" s="92" t="s">
+      <c r="BX33" s="77" t="s">
         <v>223</v>
       </c>
     </row>
@@ -10404,7 +10405,7 @@
       <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="70" t="s">
         <v>152</v>
       </c>
       <c r="C34" s="16">
@@ -10422,7 +10423,7 @@
       <c r="G34" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="68" t="s">
+      <c r="H34" s="67" t="s">
         <v>151</v>
       </c>
       <c r="I34" s="17">
@@ -10494,14 +10495,14 @@
       <c r="AA34" s="33">
         <v>4</v>
       </c>
-      <c r="AB34" s="72">
+      <c r="AB34" s="71">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AC34" s="49">
         <v>76</v>
       </c>
-      <c r="AD34" s="73" t="str">
+      <c r="AD34" s="72" t="str">
         <f t="shared" si="9"/>
         <v>B+</v>
       </c>
@@ -10570,7 +10571,7 @@
         <f t="shared" si="30"/>
         <v>14</v>
       </c>
-      <c r="AW34" s="67">
+      <c r="AW34" s="66">
         <v>75</v>
       </c>
       <c r="AX34" s="7" t="str">
@@ -10648,11 +10649,11 @@
         <f t="shared" si="39"/>
         <v>3.6944444444444446</v>
       </c>
-      <c r="BR34" s="11">
+      <c r="BR34" s="62">
         <f t="shared" si="22"/>
         <v>133.5</v>
       </c>
-      <c r="BS34" s="10">
+      <c r="BS34" s="9">
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
@@ -10668,10 +10669,10 @@
         <f t="shared" si="42"/>
         <v>Excellent</v>
       </c>
-      <c r="BW34" s="88" t="s">
+      <c r="BW34" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="BX34" s="92" t="s">
+      <c r="BX34" s="77" t="s">
         <v>224</v>
       </c>
     </row>

--- a/Ners/2024-2025/Transkip Nilai NERS 2024.xlsx
+++ b/Ners/2024-2025/Transkip Nilai NERS 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Documents\Stikes\Transkip Nilai 2025\Ners\2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088E66FE-FE89-4B42-A0E4-E240A2FD28E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8778A1C-7269-4A8F-B65B-29DDC01071B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334A25BB-288C-4A5C-B9BF-5A8A0F233C73}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <t>30 April 2001</t>
   </si>
   <si>
-    <t>P. Mentebung</t>
-  </si>
-  <si>
     <t>02 November 2000</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
   </si>
   <si>
     <t>02 November 2001</t>
-  </si>
-  <si>
-    <t>Tanjunng Balai Karimum</t>
   </si>
   <si>
     <t>23 Mei 2002</t>
@@ -711,6 +705,12 @@
   </si>
   <si>
     <t>Nursing Care for Anxiety in Child S with Febrile Seizures using Coloring Therapy in Subi Kecil Room, Dr. Midiyato Suratani Naval Hospital</t>
+  </si>
+  <si>
+    <t>Pulau Mentebung</t>
+  </si>
+  <si>
+    <t>Tanjunng Balai Karimun</t>
   </si>
 </sst>
 </file>
@@ -1153,13 +1153,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,22 +1195,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1517,10 +1517,10 @@
   <dimension ref="A1:BX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BX3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BR3" sqref="BR3:BR34"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,19 +1543,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="78" t="s">
+      <c r="D1" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="81" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="80" t="s">
@@ -1564,102 +1564,102 @@
       <c r="G1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="82" t="s">
+      <c r="I1" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83" t="s">
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="84" t="s">
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="85" t="s">
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="86" t="s">
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="91" t="s">
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="91"/>
-      <c r="AP1" s="91"/>
-      <c r="AQ1" s="91"/>
-      <c r="AR1" s="81" t="s">
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="88" t="s">
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AX1" s="88"/>
-      <c r="AY1" s="88"/>
-      <c r="AZ1" s="88"/>
-      <c r="BA1" s="88"/>
-      <c r="BB1" s="89" t="s">
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
-      <c r="BF1" s="89"/>
-      <c r="BG1" s="90" t="s">
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="83"/>
+      <c r="BE1" s="83"/>
+      <c r="BF1" s="83"/>
+      <c r="BG1" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="BH1" s="90"/>
-      <c r="BI1" s="90"/>
-      <c r="BJ1" s="90"/>
-      <c r="BK1" s="90"/>
-      <c r="BL1" s="78" t="s">
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="84"/>
+      <c r="BK1" s="84"/>
+      <c r="BL1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="BM1" s="78" t="s">
+      <c r="BM1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="BN1" s="87" t="s">
+      <c r="BN1" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="BO1" s="78" t="s">
+      <c r="BO1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="BP1" s="78" t="s">
+      <c r="BP1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="BQ1" s="78" t="s">
+      <c r="BQ1" s="81" t="s">
         <v>12</v>
       </c>
       <c r="BR1" s="13" t="s">
@@ -1668,31 +1668,31 @@
       <c r="BS1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="BT1" s="78" t="s">
+      <c r="BT1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="BU1" s="87" t="s">
+      <c r="BU1" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="BV1" s="87" t="s">
+      <c r="BV1" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="BW1" s="87" t="s">
+      <c r="BW1" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="BX1" s="87" t="s">
-        <v>192</v>
+      <c r="BX1" s="79" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="80"/>
       <c r="G2" s="80"/>
-      <c r="H2" s="78"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="39" t="s">
         <v>20</v>
       </c>
@@ -1858,30 +1858,30 @@
       <c r="BK2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="BL2" s="78"/>
-      <c r="BM2" s="78"/>
-      <c r="BN2" s="87"/>
-      <c r="BO2" s="78"/>
-      <c r="BP2" s="78"/>
-      <c r="BQ2" s="78"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="79"/>
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="81"/>
+      <c r="BQ2" s="81"/>
       <c r="BR2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="BT2" s="78"/>
-      <c r="BU2" s="87"/>
-      <c r="BV2" s="87"/>
-      <c r="BW2" s="87"/>
-      <c r="BX2" s="87"/>
+      <c r="BT2" s="81"/>
+      <c r="BU2" s="79"/>
+      <c r="BV2" s="79"/>
+      <c r="BW2" s="79"/>
+      <c r="BX2" s="79"/>
     </row>
     <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" s="6">
         <v>132414001</v>
@@ -1896,10 +1896,10 @@
         <v>37</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I3" s="17">
         <v>80</v>
@@ -2145,10 +2145,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW3" s="73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BX3" s="77" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:76" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="6">
         <v>132414002</v>
@@ -2171,10 +2171,10 @@
         <v>39</v>
       </c>
       <c r="G4" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="67" t="s">
         <v>119</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>121</v>
       </c>
       <c r="I4" s="17">
         <v>79</v>
@@ -2420,10 +2420,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW4" s="73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BX4" s="77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:76" x14ac:dyDescent="0.25">
@@ -2431,7 +2431,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="6">
         <v>132414003</v>
@@ -2446,10 +2446,10 @@
         <v>41</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I5" s="17">
         <v>80</v>
@@ -2695,10 +2695,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW5" s="73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BX5" s="77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:76" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" s="6">
         <v>132414004</v>
@@ -2718,13 +2718,13 @@
         <v>42</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H6" s="67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I6" s="17">
         <v>80</v>
@@ -2970,10 +2970,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW6" s="73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BX6" s="77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
@@ -2981,7 +2981,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="6">
         <v>132414005</v>
@@ -2996,10 +2996,10 @@
         <v>44</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I7" s="17">
         <v>79</v>
@@ -3245,10 +3245,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW7" s="74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="BX7" s="77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:76" x14ac:dyDescent="0.25">
@@ -3256,7 +3256,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C8" s="6">
         <v>132414006</v>
@@ -3271,10 +3271,10 @@
         <v>46</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H8" s="67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I8" s="17">
         <v>80</v>
@@ -3520,10 +3520,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW8" s="73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BX8" s="77" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:76" x14ac:dyDescent="0.25">
@@ -3531,7 +3531,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" s="6">
         <v>132414008</v>
@@ -3546,10 +3546,10 @@
         <v>48</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H9" s="67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I9" s="17">
         <v>80</v>
@@ -3795,10 +3795,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW9" s="73" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BX9" s="77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:76" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" s="6">
         <v>132414009</v>
@@ -3821,10 +3821,10 @@
         <v>50</v>
       </c>
       <c r="G10" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I10" s="17">
         <v>80</v>
@@ -4049,7 +4049,7 @@
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="BR10" s="92">
+      <c r="BR10" s="78">
         <f t="shared" si="22"/>
         <v>145.5</v>
       </c>
@@ -4070,10 +4070,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW10" s="75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BX10" s="77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:76" x14ac:dyDescent="0.25">
@@ -4081,7 +4081,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="6">
         <v>132414010</v>
@@ -4096,10 +4096,10 @@
         <v>52</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H11" s="67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I11" s="17">
         <v>80</v>
@@ -4345,10 +4345,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW11" s="73" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BX11" s="77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:76" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C12" s="6">
         <v>132414011</v>
@@ -4368,13 +4368,13 @@
         <v>53</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G12" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H12" s="67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I12" s="17">
         <v>80</v>
@@ -4620,10 +4620,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW12" s="73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BX12" s="77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:76" x14ac:dyDescent="0.25">
@@ -4631,7 +4631,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13" s="6">
         <v>132414013</v>
@@ -4646,10 +4646,10 @@
         <v>55</v>
       </c>
       <c r="G13" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H13" s="67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I13" s="17">
         <v>74</v>
@@ -4895,10 +4895,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW13" s="73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BX13" s="77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4906,7 +4906,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C14" s="6">
         <v>132414014</v>
@@ -4915,16 +4915,16 @@
         <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H14" s="67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I14" s="17">
         <v>74</v>
@@ -5170,10 +5170,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="BW14" s="73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BX14" s="77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:76" x14ac:dyDescent="0.25">
@@ -5181,7 +5181,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="6">
         <v>132414015</v>
@@ -5196,10 +5196,10 @@
         <v>57</v>
       </c>
       <c r="G15" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H15" s="67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I15" s="17">
         <v>80</v>
@@ -5445,10 +5445,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW15" s="73" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BX15" s="77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:76" x14ac:dyDescent="0.25">
@@ -5456,7 +5456,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" s="57">
         <v>132414016</v>
@@ -5471,10 +5471,10 @@
         <v>59</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" s="67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I16" s="17">
         <v>78</v>
@@ -5720,10 +5720,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW16" s="73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BX16" s="77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
@@ -5731,7 +5731,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" s="6">
         <v>132414017</v>
@@ -5746,10 +5746,10 @@
         <v>61</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H17" s="67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I17" s="17">
         <v>78</v>
@@ -5995,10 +5995,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW17" s="74" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BX17" s="77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:76" x14ac:dyDescent="0.25">
@@ -6006,7 +6006,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C18" s="6">
         <v>132414018</v>
@@ -6021,10 +6021,10 @@
         <v>63</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H18" s="67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I18" s="17">
         <v>78</v>
@@ -6270,10 +6270,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW18" s="73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BX18" s="77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:76" x14ac:dyDescent="0.25">
@@ -6281,7 +6281,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="6">
         <v>132414019</v>
@@ -6296,10 +6296,10 @@
         <v>65</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H19" s="67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I19" s="17">
         <v>78</v>
@@ -6545,10 +6545,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="BW19" s="73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BX19" s="77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:76" x14ac:dyDescent="0.25">
@@ -6556,7 +6556,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C20" s="6">
         <v>132414020</v>
@@ -6571,10 +6571,10 @@
         <v>67</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H20" s="67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I20" s="17">
         <v>78</v>
@@ -6820,10 +6820,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW20" s="73" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BX20" s="77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:76" x14ac:dyDescent="0.25">
@@ -6831,7 +6831,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="6">
         <v>132414021</v>
@@ -6846,10 +6846,10 @@
         <v>68</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H21" s="67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I21" s="17">
         <v>74</v>
@@ -7095,10 +7095,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="BW21" s="73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BX21" s="77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:76" x14ac:dyDescent="0.25">
@@ -7106,7 +7106,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" s="6">
         <v>132414022</v>
@@ -7121,10 +7121,10 @@
         <v>70</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H22" s="67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I22" s="17">
         <v>79</v>
@@ -7370,10 +7370,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW22" s="73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BX22" s="77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:76" x14ac:dyDescent="0.25">
@@ -7381,7 +7381,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="6">
         <v>132414023</v>
@@ -7396,10 +7396,10 @@
         <v>71</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H23" s="67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I23" s="17">
         <v>78</v>
@@ -7645,10 +7645,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW23" s="73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BX23" s="77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:76" ht="30" x14ac:dyDescent="0.25">
@@ -7656,7 +7656,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C24" s="6">
         <v>132414025</v>
@@ -7671,10 +7671,10 @@
         <v>73</v>
       </c>
       <c r="G24" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H24" s="67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I24" s="17">
         <v>76</v>
@@ -7920,10 +7920,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW24" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BX24" s="77" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:76" x14ac:dyDescent="0.25">
@@ -7931,7 +7931,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C25" s="6">
         <v>132414026</v>
@@ -7946,10 +7946,10 @@
         <v>74</v>
       </c>
       <c r="G25" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H25" s="67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I25" s="17">
         <v>80</v>
@@ -8195,10 +8195,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW25" s="73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BX25" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:76" x14ac:dyDescent="0.25">
@@ -8206,7 +8206,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C26" s="6">
         <v>132414027</v>
@@ -8215,16 +8215,16 @@
         <v>27</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="58" t="s">
-        <v>76</v>
-      </c>
       <c r="G26" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H26" s="67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" s="17">
         <v>79</v>
@@ -8470,10 +8470,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="BW26" s="73" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="BX26" s="77" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:76" x14ac:dyDescent="0.25">
@@ -8481,7 +8481,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C27" s="6">
         <v>132414028</v>
@@ -8490,16 +8490,16 @@
         <v>27</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="58" t="s">
-        <v>78</v>
-      </c>
       <c r="G27" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H27" s="67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I27" s="17">
         <v>79</v>
@@ -8745,10 +8745,10 @@
         <v>Highly Satisfactory</v>
       </c>
       <c r="BW27" s="73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BX27" s="77" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:76" ht="30" x14ac:dyDescent="0.25">
@@ -8756,7 +8756,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28" s="6">
         <v>132414032</v>
@@ -8765,16 +8765,16 @@
         <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="58" t="s">
-        <v>80</v>
-      </c>
       <c r="G28" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H28" s="67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I28" s="17">
         <v>80</v>
@@ -8999,7 +8999,7 @@
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="BR28" s="92">
+      <c r="BR28" s="78">
         <f t="shared" si="22"/>
         <v>145.5</v>
       </c>
@@ -9020,10 +9020,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW28" s="73" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="BX28" s="77" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:76" x14ac:dyDescent="0.25">
@@ -9031,7 +9031,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C29" s="6">
         <v>132414033</v>
@@ -9040,16 +9040,16 @@
         <v>27</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="58" t="s">
-        <v>82</v>
-      </c>
       <c r="G29" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H29" s="67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I29" s="17">
         <v>75</v>
@@ -9295,10 +9295,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW29" s="73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="BX29" s="77" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:76" x14ac:dyDescent="0.25">
@@ -9306,7 +9306,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C30" s="6">
         <v>132414035</v>
@@ -9315,16 +9315,16 @@
         <v>27</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="58" t="s">
-        <v>84</v>
-      </c>
       <c r="G30" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H30" s="67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I30" s="17">
         <v>74</v>
@@ -9570,10 +9570,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW30" s="73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BX30" s="77" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:76" ht="30" x14ac:dyDescent="0.25">
@@ -9581,7 +9581,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C31" s="6">
         <v>132414037</v>
@@ -9590,16 +9590,16 @@
         <v>27</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="58" t="s">
-        <v>86</v>
-      </c>
       <c r="G31" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H31" s="67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I31" s="17">
         <v>78</v>
@@ -9845,10 +9845,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW31" s="73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BX31" s="77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:76" x14ac:dyDescent="0.25">
@@ -9856,7 +9856,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C32" s="6">
         <v>132414038</v>
@@ -9868,13 +9868,13 @@
         <v>58</v>
       </c>
       <c r="F32" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H32" s="67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I32" s="17">
         <v>80</v>
@@ -10120,10 +10120,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW32" s="73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="BX32" s="77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:76" x14ac:dyDescent="0.25">
@@ -10131,7 +10131,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="16">
         <v>132414040</v>
@@ -10143,13 +10143,13 @@
         <v>60</v>
       </c>
       <c r="F33" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H33" s="67" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I33" s="17">
         <v>74</v>
@@ -10395,10 +10395,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW33" s="73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="BX33" s="77" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:76" ht="30" x14ac:dyDescent="0.25">
@@ -10406,7 +10406,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="70" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C34" s="16">
         <v>132414042</v>
@@ -10415,16 +10415,16 @@
         <v>27</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="F34" s="58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G34" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H34" s="67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I34" s="17">
         <v>75</v>
@@ -10670,10 +10670,10 @@
         <v>Excellent</v>
       </c>
       <c r="BW34" s="73" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BX34" s="77" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
@@ -10749,6 +10749,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="BX1:BX2"/>
     <mergeCell ref="BU1:BU2"/>
     <mergeCell ref="BV1:BV2"/>
@@ -10765,20 +10779,6 @@
     <mergeCell ref="BM1:BM2"/>
     <mergeCell ref="BN1:BN2"/>
     <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
